--- a/data/trans_dic/P17G_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9699697901664339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9725976846812977</v>
+        <v>0.9725976846812976</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9760099535425568</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9213072466065363</v>
+        <v>0.9175633857815174</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.929115713006986</v>
+        <v>0.9286097795849489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9389041350012214</v>
+        <v>0.9387912736515831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9262776716879239</v>
+        <v>0.9287425680215379</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9552463132135102</v>
+        <v>0.9552830214087987</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9706809688272694</v>
+        <v>0.9731018108303989</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9607484818994427</v>
+        <v>0.9603952558064695</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9067424988425515</v>
+        <v>0.9002187312597423</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9532126220628503</v>
+        <v>0.9540242965950504</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9650030193378536</v>
+        <v>0.9631805102360328</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9597523760133454</v>
+        <v>0.9620894447673135</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9278148920235575</v>
+        <v>0.9246006659152249</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.987446987620438</v>
+        <v>0.9872647122599663</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9816262655493676</v>
+        <v>0.9800111404556759</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9861274799367358</v>
+        <v>0.9880828501542606</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9926695445779113</v>
+        <v>0.9929717861772106</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9884369235450992</v>
+        <v>0.9882585450277839</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9952447342588241</v>
+        <v>0.9952836054166944</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9924644719857885</v>
+        <v>0.9918159125679208</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9701780012231647</v>
+        <v>0.967254456426579</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9862243100317861</v>
+        <v>0.9854052782857767</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9875074272333383</v>
+        <v>0.9863056731855483</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9863473231250908</v>
+        <v>0.9872150924097641</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9729999074471725</v>
+        <v>0.9727995161601001</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.9371917278255349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9397527969234908</v>
+        <v>0.9397527969234909</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9444971004114334</v>
@@ -833,7 +833,7 @@
         <v>0.9364174075228399</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9336722416899098</v>
+        <v>0.9336722416899099</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8892566793328183</v>
+        <v>0.8859199368268109</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9038659850299302</v>
+        <v>0.8976331236218421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8975550220627996</v>
+        <v>0.8990759491212246</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8918526948949443</v>
+        <v>0.8944827036811078</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9157986541825989</v>
+        <v>0.9152608092921508</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9302732454692022</v>
+        <v>0.9289621640900583</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9028274925708933</v>
+        <v>0.9018204644664158</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8916598382548574</v>
+        <v>0.8997070114908098</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9167882053382087</v>
+        <v>0.9163319157532487</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9297816126828377</v>
+        <v>0.9280777743379729</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9111857755092628</v>
+        <v>0.9121713604340533</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9072938702347972</v>
+        <v>0.9072224023088447</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9584885126500379</v>
+        <v>0.9607412556513912</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9694288861327502</v>
+        <v>0.9715694917246782</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9639213171647188</v>
+        <v>0.9639621059163683</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9719284747182729</v>
+        <v>0.9701757612105932</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9676293370372588</v>
+        <v>0.9669663884836474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.974925742806373</v>
+        <v>0.9751819796381622</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9630970123182265</v>
+        <v>0.9594978193549404</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9508620083077325</v>
+        <v>0.9520663617989559</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9581658784803799</v>
+        <v>0.9589082074920671</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9670043271518363</v>
+        <v>0.9672503450338684</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9545309905591723</v>
+        <v>0.955192458909784</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9556138787886358</v>
+        <v>0.953981729966462</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8801283824333839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8996415377632501</v>
+        <v>0.8996415377632504</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9034657672589153</v>
@@ -957,7 +957,7 @@
         <v>0.9198122249023002</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.8956833463535219</v>
+        <v>0.895683346353522</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.8898654091489711</v>
@@ -969,7 +969,7 @@
         <v>0.9013944467415451</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8974694728105668</v>
+        <v>0.8974694728105669</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8147731090634607</v>
+        <v>0.8208815903394162</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8826093463043736</v>
+        <v>0.8791645142404528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8210987269541713</v>
+        <v>0.8300544703176429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8400084419259355</v>
+        <v>0.8406822970744273</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8628161041499417</v>
+        <v>0.8587069579829256</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9083764846386808</v>
+        <v>0.9078197694170749</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8749396952598687</v>
+        <v>0.8817158680749126</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8629028874012515</v>
+        <v>0.8603319180776335</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8562389423194847</v>
+        <v>0.8590202294576875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9099829584092389</v>
+        <v>0.9109358711034603</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8658861235013661</v>
+        <v>0.8696202199595072</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8679650603455987</v>
+        <v>0.8657157487601741</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9098411274850354</v>
+        <v>0.9116821960808094</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9573103223391163</v>
+        <v>0.9549961080540498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.917130585433125</v>
+        <v>0.921501758082282</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9386843331165182</v>
+        <v>0.9382470464662326</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9365495625387058</v>
+        <v>0.936812425910501</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.968947570800516</v>
+        <v>0.9705888725321685</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9486720165608967</v>
+        <v>0.9515538069735762</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9272214511197706</v>
+        <v>0.924718104028655</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9158620319123411</v>
+        <v>0.9166962027169334</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9570009964144116</v>
+        <v>0.9597249271818737</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9277446461286464</v>
+        <v>0.9272773702601296</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9227809282999532</v>
+        <v>0.9221910205418763</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.8422085683237444</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.8190044004493187</v>
+        <v>0.8190044004493188</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.8397553671558613</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7068470365150884</v>
+        <v>0.6879908407599085</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7528122240483743</v>
+        <v>0.7388275189048733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7150904238685408</v>
+        <v>0.7165229549714851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7243117385406229</v>
+        <v>0.7262260937279101</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7717358599690269</v>
+        <v>0.7790226919551099</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8135219854332567</v>
+        <v>0.8145052765617679</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7695415884436354</v>
+        <v>0.7658431679938804</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7682875598166905</v>
+        <v>0.7646434150875266</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.769604499942718</v>
+        <v>0.7727566284242708</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8107430238887088</v>
+        <v>0.8105656464857611</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7680795826500206</v>
+        <v>0.7660665174507</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7641596479476244</v>
+        <v>0.7672453043290495</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8920985267313931</v>
+        <v>0.8873365119676301</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9194400119394651</v>
+        <v>0.9117412392189503</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8663423928767207</v>
+        <v>0.8710265184815714</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8519537501753541</v>
+        <v>0.8526515327837713</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9227581592932853</v>
+        <v>0.9290457799671387</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9463009066327199</v>
+        <v>0.9425680004164626</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9030440566676783</v>
+        <v>0.9004079174870042</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8617695110098454</v>
+        <v>0.8609564802763605</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8936610538249135</v>
+        <v>0.8937277608197801</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9157574132519621</v>
+        <v>0.9185164246349161</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8699355275858118</v>
+        <v>0.8678864749966007</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8472244918566298</v>
+        <v>0.8476964996764664</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9382581000910419</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.8988612805425616</v>
+        <v>0.8988612805425618</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.925547532654416</v>
@@ -1241,7 +1241,7 @@
         <v>0.9275775888038712</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.8962743904888634</v>
+        <v>0.8962743904888635</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8830025114151507</v>
+        <v>0.8835899928176512</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9084706298792593</v>
+        <v>0.9094735056473759</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.891277364398568</v>
+        <v>0.8904034159356971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8654921214277376</v>
+        <v>0.862231782692974</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9192838869370782</v>
+        <v>0.9185680490545284</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9448171183993185</v>
+        <v>0.9461772967632291</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9218145893842715</v>
+        <v>0.9226687294968182</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8803775732826724</v>
+        <v>0.8789413776431074</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.910880332363131</v>
+        <v>0.9119457715685355</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9367078917941576</v>
+        <v>0.9379756254684641</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9140105353451817</v>
+        <v>0.9154348119724209</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8811367228555694</v>
+        <v>0.8789489445952732</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9288802807869831</v>
+        <v>0.9287350865526204</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9487350401905956</v>
+        <v>0.9489953444811892</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9314258043717005</v>
+        <v>0.9333904307136719</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9168075615089303</v>
+        <v>0.9161410382980255</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9505944832189208</v>
+        <v>0.9500141867488332</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9700319881596675</v>
+        <v>0.970021663805155</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9516603426000584</v>
+        <v>0.9537740247382015</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9149562854273542</v>
+        <v>0.9148506535228831</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9377449731290726</v>
+        <v>0.9383074900555154</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9586435625649249</v>
+        <v>0.9595283022477742</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.939287490563673</v>
+        <v>0.9392739733487548</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9099826059454964</v>
+        <v>0.9104635111079084</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>136008</v>
+        <v>135455</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>245853</v>
+        <v>245719</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>257362</v>
+        <v>257331</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>104949</v>
+        <v>105228</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>312745</v>
+        <v>312757</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>394912</v>
+        <v>395897</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>413251</v>
+        <v>413099</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>175155</v>
+        <v>173894</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>452798</v>
+        <v>453183</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>647951</v>
+        <v>646728</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>675899</v>
+        <v>677545</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>284348</v>
+        <v>283363</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>145772</v>
+        <v>145745</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>259748</v>
+        <v>259321</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>270306</v>
+        <v>270842</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>112471</v>
+        <v>112506</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>323611</v>
+        <v>323553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>404905</v>
+        <v>404921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>426893</v>
+        <v>426614</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>187408</v>
+        <v>186844</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>468479</v>
+        <v>468090</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>663062</v>
+        <v>662255</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>694628</v>
+        <v>695239</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>298196</v>
+        <v>298135</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>208965</v>
+        <v>208181</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>192399</v>
+        <v>191072</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>198351</v>
+        <v>198687</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>156676</v>
+        <v>157138</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>304877</v>
+        <v>304698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>337615</v>
+        <v>337139</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>292013</v>
+        <v>291688</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>253038</v>
+        <v>255322</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>520640</v>
+        <v>520381</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>535352</v>
+        <v>534371</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>496080</v>
+        <v>496616</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>416863</v>
+        <v>416831</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>225233</v>
+        <v>225763</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>206355</v>
+        <v>206810</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>213017</v>
+        <v>213026</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>170744</v>
+        <v>170436</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>322132</v>
+        <v>321911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>353820</v>
+        <v>353913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>311507</v>
+        <v>310343</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>269838</v>
+        <v>270180</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>544139</v>
+        <v>544560</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>556785</v>
+        <v>556926</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>519678</v>
+        <v>520038</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>439064</v>
+        <v>438315</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>151395</v>
+        <v>152530</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>165813</v>
+        <v>165166</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>178006</v>
+        <v>179948</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>163287</v>
+        <v>163418</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>232342</v>
+        <v>231235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>229796</v>
+        <v>229655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>219011</v>
+        <v>220708</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>203982</v>
+        <v>203374</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>389670</v>
+        <v>390936</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>401158</v>
+        <v>401578</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>404460</v>
+        <v>406204</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>373899</v>
+        <v>372930</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>169059</v>
+        <v>169401</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>179847</v>
+        <v>179412</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>198825</v>
+        <v>199772</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>182468</v>
+        <v>182383</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>252197</v>
+        <v>252268</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>245119</v>
+        <v>245534</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>237468</v>
+        <v>238189</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>219186</v>
+        <v>218594</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>416804</v>
+        <v>417184</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>421885</v>
+        <v>423086</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>433354</v>
+        <v>433136</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>397513</v>
+        <v>397259</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>50553</v>
+        <v>49204</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>77153</v>
+        <v>75719</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>86670</v>
+        <v>86844</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>140393</v>
+        <v>140764</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>67377</v>
+        <v>68013</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>88571</v>
+        <v>88678</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>102140</v>
+        <v>101650</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>158995</v>
+        <v>158241</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>122232</v>
+        <v>122733</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>171359</v>
+        <v>171321</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>195039</v>
+        <v>194528</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>306258</v>
+        <v>307494</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>63802</v>
+        <v>63461</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>94230</v>
+        <v>93441</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>105002</v>
+        <v>105570</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>165134</v>
+        <v>165269</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>80562</v>
+        <v>81111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>103027</v>
+        <v>102620</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>119860</v>
+        <v>119510</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>178341</v>
+        <v>178172</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>141936</v>
+        <v>141946</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>193554</v>
+        <v>194138</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>220904</v>
+        <v>220383</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>339548</v>
+        <v>339737</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>565073</v>
+        <v>565449</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>697546</v>
+        <v>698316</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>742515</v>
+        <v>741787</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>586106</v>
+        <v>583898</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>934814</v>
+        <v>934086</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1069163</v>
+        <v>1070702</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1047754</v>
+        <v>1048725</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>810202</v>
+        <v>808880</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1509182</v>
+        <v>1510947</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1779215</v>
+        <v>1781623</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1800338</v>
+        <v>1803143</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1407602</v>
+        <v>1404107</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>594432</v>
+        <v>594339</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>728462</v>
+        <v>728662</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>775962</v>
+        <v>777599</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>620857</v>
+        <v>620405</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>966654</v>
+        <v>966064</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1097696</v>
+        <v>1097684</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1081677</v>
+        <v>1084080</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>842024</v>
+        <v>841927</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1553692</v>
+        <v>1554624</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1820880</v>
+        <v>1822561</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1850126</v>
+        <v>1850099</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1453683</v>
+        <v>1454451</v>
       </c>
     </row>
     <row r="24">
